--- a/ValleyVisionSolution/Pages/HistoricalSpending/HistoricalSpendingTemplate.xlsx
+++ b/ValleyVisionSolution/Pages/HistoricalSpending/HistoricalSpendingTemplate.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508733E-0A4A-425E-85E4-36DA65887515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EAFF2F-552F-4192-A126-443DA95058A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4755" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Historical Spending" sheetId="2" r:id="rId1"/>
+    <sheet name="Historical Spending Charts" sheetId="4" r:id="rId1"/>
+    <sheet name="Historical Spending Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>Madison County Historical Spending</t>
+  </si>
+  <si>
+    <t>Madison County Historical Spending Charts</t>
   </si>
 </sst>
 </file>
@@ -107,7 +111,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -117,6 +121,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -167,741 +175,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Total Historic Expenditure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Historical Spending'!$V$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Expenditure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Historical Spending'!$V$6:$V$20</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-400B-47C5-A8F4-EB5D5AA101FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="704207984"/>
-        <c:axId val="704219024"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$P$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Inflation Rate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$O$6:$O$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$P$6:$P$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-400B-47C5-A8F4-EB5D5AA101FF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$Q$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$O$6:$O$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$Q$6:$Q$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-400B-47C5-A8F4-EB5D5AA101FF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$R$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Public Safety</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$O$6:$O$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$R$6:$R$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-400B-47C5-A8F4-EB5D5AA101FF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$S$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>School</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$O$6:$O$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$S$6:$S$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-400B-47C5-A8F4-EB5D5AA101FF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$T$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Anomaly</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$O$6:$O$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$T$6:$T$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-400B-47C5-A8F4-EB5D5AA101FF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$U$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Other</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$O$6:$O$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Historical Spending'!$U$6:$U$20</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                      <c:ptCount val="15"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-400B-47C5-A8F4-EB5D5AA101FF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="704207984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="704219024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="2"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="704219024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="704207984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -982,7 +255,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historical Spending'!$R$5</c:f>
+              <c:f>'Historical Spending Table'!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1003,7 +276,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1012,7 +285,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historical Spending'!$R$6:$R$20</c:f>
+              <c:f>'Historical Spending Table'!$R$6:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1021,7 +294,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6916-4356-B9BA-5920382EEC1B}"/>
+              <c16:uniqueId val="{00000000-5743-4825-9665-4E59703105C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1030,7 +303,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historical Spending'!$S$5</c:f>
+              <c:f>'Historical Spending Table'!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1053,7 +326,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1062,7 +335,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historical Spending'!$S$6:$S$20</c:f>
+              <c:f>'Historical Spending Table'!$S$6:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1071,7 +344,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6916-4356-B9BA-5920382EEC1B}"/>
+              <c16:uniqueId val="{00000001-5743-4825-9665-4E59703105C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1080,7 +353,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historical Spending'!$T$5</c:f>
+              <c:f>'Historical Spending Table'!$T$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1103,7 +376,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1112,7 +385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historical Spending'!$T$6:$T$20</c:f>
+              <c:f>'Historical Spending Table'!$T$6:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1121,7 +394,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6916-4356-B9BA-5920382EEC1B}"/>
+              <c16:uniqueId val="{00000002-5743-4825-9665-4E59703105C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1130,7 +403,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historical Spending'!$U$5</c:f>
+              <c:f>'Historical Spending Table'!$U$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1153,7 +426,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1162,7 +435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historical Spending'!$U$6:$U$20</c:f>
+              <c:f>'Historical Spending Table'!$U$6:$U$20</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1171,7 +444,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6916-4356-B9BA-5920382EEC1B}"/>
+              <c16:uniqueId val="{00000003-5743-4825-9665-4E59703105C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1378,7 +651,1295 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Historic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Expenditure by Category + Rates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Historical Spending Table'!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Public Safety</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$R$6:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7F6-4AD0-B0A1-7D94ECEFE754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Historical Spending Table'!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>School</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="83000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$S$6:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7F6-4AD0-B0A1-7D94ECEFE754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Historical Spending Table'!$T$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anomaly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$T$6:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C7F6-4AD0-B0A1-7D94ECEFE754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Historical Spending Table'!$U$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="48000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$U$6:$U$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C7F6-4AD0-B0A1-7D94ECEFE754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="714115712"/>
+        <c:axId val="714113312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="714115712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714113312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="714113312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714115712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Total Historic Expenditure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Historical Spending Table'!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Expenditure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Historical Spending Table'!$V$6:$V$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D25E-4139-BA66-EC2930ABF476}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="704207984"/>
+        <c:axId val="704219024"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$P$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Inflation Rate</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$O$6:$O$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$P$6:$P$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D25E-4139-BA66-EC2930ABF476}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$Q$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$O$6:$O$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$Q$6:$Q$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D25E-4139-BA66-EC2930ABF476}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$R$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Public Safety</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$O$6:$O$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$R$6:$R$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-D25E-4139-BA66-EC2930ABF476}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$S$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>School</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$O$6:$O$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$S$6:$S$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D25E-4139-BA66-EC2930ABF476}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$T$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Anomaly</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$O$6:$O$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$T$6:$T$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-D25E-4139-BA66-EC2930ABF476}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$U$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Other</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$O$6:$O$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Historical Spending Table'!$U$6:$U$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                      <c:ptCount val="15"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-D25E-4139-BA66-EC2930ABF476}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="704207984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704219024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="704219024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704207984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1458,7 +2019,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historical Spending'!$V$5</c:f>
+              <c:f>'Historical Spending Table'!$V$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1499,7 +2060,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1508,7 +2069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historical Spending'!$V$6:$V$20</c:f>
+              <c:f>'Historical Spending Table'!$V$6:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1518,7 +2079,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FC03-4FC6-BD3C-3FF7C7768AAE}"/>
+              <c16:uniqueId val="{00000000-2E48-4A7F-B856-B737C685C6C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1543,7 +2104,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historical Spending'!$P$5</c:f>
+              <c:f>'Historical Spending Table'!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1584,7 +2145,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1593,7 +2154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historical Spending'!$P$6:$P$20</c:f>
+              <c:f>'Historical Spending Table'!$P$6:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1603,7 +2164,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC03-4FC6-BD3C-3FF7C7768AAE}"/>
+              <c16:uniqueId val="{00000001-2E48-4A7F-B856-B737C685C6C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1612,7 +2173,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Historical Spending'!$Q$5</c:f>
+              <c:f>'Historical Spending Table'!$Q$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1653,7 +2214,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
+              <c:f>'Historical Spending Table'!$O$6:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1662,7 +2223,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Historical Spending'!$Q$6:$Q$20</c:f>
+              <c:f>'Historical Spending Table'!$Q$6:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1672,7 +2233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC03-4FC6-BD3C-3FF7C7768AAE}"/>
+              <c16:uniqueId val="{00000002-2E48-4A7F-B856-B737C685C6C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1939,560 +2500,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Historic</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Expenditure by Category + Rates</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Historical Spending'!$R$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Public Safety</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Historical Spending'!$R$6:$R$20</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B5F8-4DCD-B035-0CAEC656D331}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Historical Spending'!$S$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>School</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="83000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="83000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:tint val="83000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Historical Spending'!$S$6:$S$20</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B5F8-4DCD-B035-0CAEC656D331}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Historical Spending'!$T$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Anomaly</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:tint val="65000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Historical Spending'!$T$6:$T$20</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B5F8-4DCD-B035-0CAEC656D331}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Historical Spending'!$U$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="48000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="48000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:tint val="48000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Historical Spending'!$O$6:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Historical Spending'!$U$6:$U$20</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B5F8-4DCD-B035-0CAEC656D331}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="714115712"/>
-        <c:axId val="714113312"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="714115712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="714113312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="714113312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="714115712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2532,18 +2552,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
@@ -3054,7 +3062,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3557,7 +3565,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4566,23 +4574,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1050235</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181BE8D8-06C0-083E-7144-8138F3AA6944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CC3F7C-1A5F-44E7-4D7D-31A4A714580D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4602,23 +4610,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="3" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D2AC65-CDCC-CDEC-0298-566FAF4A7178}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30172406-2E02-C6EF-FA27-7A92DF915024}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4640,21 +4648,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="4" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2743D37B-A54F-802A-0018-66949CC6D8A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43F257E-AEA8-1D82-CB17-39D1678485EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4674,23 +4682,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1081087</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="5" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32ECA536-7B16-DE9B-EC6D-525C2EA209D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9569BF4C-2969-3FE0-3AA5-CBFC567218A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4720,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CD63C4B-1D72-4589-97BC-A588A9F12A3D}" name="Table1" displayName="Table1" ref="O5:V20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CD63C4B-1D72-4589-97BC-A588A9F12A3D}" name="Table1" displayName="Table1" ref="O5:V20" totalsRowShown="0" dataCellStyle="Currency">
   <autoFilter ref="O5:V20" xr:uid="{7CD63C4B-1D72-4589-97BC-A588A9F12A3D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5C9C2261-F96B-4C48-9EA2-1A89EAE08AEA}" name="Year" dataDxfId="7"/>
@@ -5012,25 +5020,1052 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316F898F-6CDC-48FE-9DD9-22BEDC04D679}">
+  <dimension ref="A1:Z38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="A5:P38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -5887,9 +6922,8 @@
     <mergeCell ref="O1:V4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>